--- a/src/main/resources/SH600511.xlsx
+++ b/src/main/resources/SH600511.xlsx
@@ -68,7 +68,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-70.0</v>
+        <v>-53.0</v>
       </c>
     </row>
     <row r="2">
@@ -164,2221 +164,2211 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20030829</t>
+          <t>20031113</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-102.0</v>
+        <v>-143.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20030904</t>
+          <t>20031204</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-75.0</v>
+        <v>-104.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20031113</t>
+          <t>20031219</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-143.0</v>
+        <v>-134.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20031204</t>
+          <t>20040217</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-104.0</v>
+        <v>-74.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20031219</t>
+          <t>20040309</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-134.0</v>
+        <v>-108.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20040217</t>
+          <t>20040324</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-74.0</v>
+        <v>-95.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20040309</t>
+          <t>20040329</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-108.0</v>
+        <v>-106.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20040324</t>
+          <t>20040406</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-95.0</v>
+        <v>-88.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20040329</t>
+          <t>20040527</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-106.0</v>
+        <v>-129.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20040406</t>
+          <t>20040602</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-88.0</v>
+        <v>-117.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20040527</t>
+          <t>20040614</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-129.0</v>
+        <v>-135.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20040602</t>
+          <t>20040624</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-117.0</v>
+        <v>-123.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20040614</t>
+          <t>20040726</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-135.0</v>
+        <v>-155.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20040624</t>
+          <t>20040804</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-123.0</v>
+        <v>-146.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20040726</t>
+          <t>20040819</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-155.0</v>
+        <v>-166.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20040804</t>
+          <t>20040831</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-146.0</v>
+        <v>-155.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20040819</t>
+          <t>20040913</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-166.0</v>
+        <v>-164.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20040831</t>
+          <t>20041008</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-155.0</v>
+        <v>-129.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20040913</t>
+          <t>20041022</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-164.0</v>
+        <v>-157.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20041008</t>
+          <t>20041116</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-129.0</v>
+        <v>-134.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20041022</t>
+          <t>20050201</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-157.0</v>
+        <v>-176.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20041116</t>
+          <t>20050225</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-134.0</v>
+        <v>-159.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20050201</t>
+          <t>20050401</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-176.0</v>
+        <v>-185.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20050225</t>
+          <t>20050428</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-159.0</v>
+        <v>-163.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20050401</t>
+          <t>20050602</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-185.0</v>
+        <v>-186.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20050428</t>
+          <t>20050912</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-163.0</v>
+        <v>-140.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20050602</t>
+          <t>20051010</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-186.0</v>
+        <v>-161.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20050912</t>
+          <t>20051024</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-140.0</v>
+        <v>-145.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20051010</t>
+          <t>20051206</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-161.0</v>
+        <v>-169.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20051024</t>
+          <t>20060206</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-145.0</v>
+        <v>-132.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20051206</t>
+          <t>20060221</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-169.0</v>
+        <v>-151.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20060206</t>
+          <t>20060628</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-132.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20060221</t>
+          <t>20060714</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-151.0</v>
+        <v>-5.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20060628</t>
+          <t>20061027</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>34.0</v>
+        <v>371.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20060714</t>
+          <t>20061114</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-5.0</v>
+        <v>178.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20061027</t>
+          <t>20061130</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>371.0</v>
+        <v>268.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20061114</t>
+          <t>20061208</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>178.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20061130</t>
+          <t>20070119</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>268.0</v>
+        <v>405.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20061208</t>
+          <t>20070201</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>130.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20070119</t>
+          <t>20070213</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>405.0</v>
+        <v>486.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20070201</t>
+          <t>20070305</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>250.0</v>
+        <v>311.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20070213</t>
+          <t>20070425</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>486.0</v>
+        <v>744.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20070305</t>
+          <t>20070514</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>311.0</v>
+        <v>587.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20070425</t>
+          <t>20070613</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>744.0</v>
+        <v>1014.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20070514</t>
+          <t>20070702</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>587.0</v>
+        <v>709.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20070613</t>
+          <t>20070827</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1014.0</v>
+        <v>1275.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20070702</t>
+          <t>20071029</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>709.0</v>
+        <v>807.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20070827</t>
+          <t>20080103</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1275.0</v>
+        <v>1465.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20071029</t>
+          <t>20080122</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>807.0</v>
+        <v>1168.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20080103</t>
+          <t>20080218</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1465.0</v>
+        <v>1646.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20080122</t>
+          <t>20080318</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1168.0</v>
+        <v>1048.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20080218</t>
+          <t>20080408</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1646.0</v>
+        <v>1454.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20080318</t>
+          <t>20080423</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1048.0</v>
+        <v>1073.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20080408</t>
+          <t>20080514</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1454.0</v>
+        <v>1493.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20080423</t>
+          <t>20080616</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1073.0</v>
+        <v>965.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20080514</t>
+          <t>20080710</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1493.0</v>
+        <v>1293.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20080616</t>
+          <t>20080908</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>965.0</v>
+        <v>777.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20080710</t>
+          <t>20080922</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1293.0</v>
+        <v>1135.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20080908</t>
+          <t>20081106</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>777.0</v>
+        <v>779.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20080922</t>
+          <t>20081222</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1135.0</v>
+        <v>1223.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20081106</t>
+          <t>20090119</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>779.0</v>
+        <v>1039.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20081222</t>
+          <t>20090216</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1223.0</v>
+        <v>1280.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20090119</t>
+          <t>20090227</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1039.0</v>
+        <v>986.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20090216</t>
+          <t>20090417</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1280.0</v>
+        <v>1392.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20090227</t>
+          <t>20090512</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>986.0</v>
+        <v>1179.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20090417</t>
+          <t>20090617</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1392.0</v>
+        <v>1737.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20090512</t>
+          <t>20090707</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1179.0</v>
+        <v>1434.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20090617</t>
+          <t>20090715</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1737.0</v>
+        <v>1652.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20090707</t>
+          <t>20090818</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1434.0</v>
+        <v>1332.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20090715</t>
+          <t>20090917</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1652.0</v>
+        <v>1931.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20090818</t>
+          <t>20090929</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1332.0</v>
+        <v>1432.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20090917</t>
+          <t>20100114</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1931.0</v>
+        <v>2658.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20090929</t>
+          <t>20100203</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1432.0</v>
+        <v>2204.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20100114</t>
+          <t>20100224</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2658.0</v>
+        <v>2614.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20100203</t>
+          <t>20100521</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2204.0</v>
+        <v>1898.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20100224</t>
+          <t>20100531</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2614.0</v>
+        <v>2234.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20100521</t>
+          <t>20100702</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1898.0</v>
+        <v>1642.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20100531</t>
+          <t>20100816</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2234.0</v>
+        <v>2342.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20100702</t>
+          <t>20100823</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1642.0</v>
+        <v>2042.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20100816</t>
+          <t>20100906</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2342.0</v>
+        <v>2331.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20100823</t>
+          <t>20101018</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2042.0</v>
+        <v>1797.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20100906</t>
+          <t>20101111</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2331.0</v>
+        <v>2634.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20101018</t>
+          <t>20101203</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1797.0</v>
+        <v>2227.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20101111</t>
+          <t>20101216</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2634.0</v>
+        <v>2397.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20101203</t>
+          <t>20110125</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2227.0</v>
+        <v>1807.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20101216</t>
+          <t>20110214</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2397.0</v>
+        <v>2036.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20110125</t>
+          <t>20110222</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1807.0</v>
+        <v>1878.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20110214</t>
+          <t>20110314</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2036.0</v>
+        <v>2141.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20110222</t>
+          <t>20110429</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1878.0</v>
+        <v>1515.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20110314</t>
+          <t>20110509</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2141.0</v>
+        <v>1626.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20110429</t>
+          <t>20110623</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1515.0</v>
+        <v>1187.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20110509</t>
+          <t>20110718</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1626.0</v>
+        <v>1579.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20110623</t>
+          <t>20110802</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1187.0</v>
+        <v>1292.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20110718</t>
+          <t>20110829</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1579.0</v>
+        <v>1719.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20110802</t>
+          <t>20110914</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1292.0</v>
+        <v>1399.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20110829</t>
+          <t>20110921</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1719.0</v>
+        <v>1575.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20110914</t>
+          <t>20111024</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1399.0</v>
+        <v>1162.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20110921</t>
+          <t>20111108</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1575.0</v>
+        <v>1422.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20111024</t>
+          <t>20120106</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1162.0</v>
+        <v>803.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20111108</t>
+          <t>20120227</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1422.0</v>
+        <v>1083.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20120106</t>
+          <t>20120307</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>803.0</v>
+        <v>948.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20120227</t>
+          <t>20120313</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1083.0</v>
+        <v>1143.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20120307</t>
+          <t>20120330</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>948.0</v>
+        <v>867.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20120313</t>
+          <t>20120516</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1143.0</v>
+        <v>1208.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20120330</t>
+          <t>20120529</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>867.0</v>
+        <v>1045.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20120516</t>
+          <t>20120605</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1208.0</v>
+        <v>1205.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20120529</t>
+          <t>20120626</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1045.0</v>
+        <v>1046.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20120605</t>
+          <t>20120703</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1205.0</v>
+        <v>1230.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20120626</t>
+          <t>20120710</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1046.0</v>
+        <v>1110.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20120703</t>
+          <t>20120821</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1230.0</v>
+        <v>1293.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20120710</t>
+          <t>20120831</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1110.0</v>
+        <v>1105.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20120821</t>
+          <t>20120907</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1293.0</v>
+        <v>1250.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20120831</t>
+          <t>20120926</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1105.0</v>
+        <v>1113.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20120907</t>
+          <t>20121017</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1250.0</v>
+        <v>1225.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20120926</t>
+          <t>20121128</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1113.0</v>
+        <v>1003.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20121017</t>
+          <t>20130129</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1225.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20121128</t>
+          <t>20130205</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1003.0</v>
+        <v>1452.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20130129</t>
+          <t>20130226</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1600.0</v>
+        <v>1793.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20130205</t>
+          <t>20130312</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1452.0</v>
+        <v>1443.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20130226</t>
+          <t>20130322</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1793.0</v>
+        <v>1697.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20130312</t>
+          <t>20130416</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1443.0</v>
+        <v>1368.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20130322</t>
+          <t>20130509</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1697.0</v>
+        <v>1612.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20130416</t>
+          <t>20130520</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1368.0</v>
+        <v>1333.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20130509</t>
+          <t>20130531</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1612.0</v>
+        <v>1583.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20130520</t>
+          <t>20130625</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1333.0</v>
+        <v>1146.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20130531</t>
+          <t>20130815</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1583.0</v>
+        <v>1640.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20130625</t>
+          <t>20130823</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1146.0</v>
+        <v>1430.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20130815</t>
+          <t>20130904</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1640.0</v>
+        <v>1655.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20130823</t>
+          <t>20130918</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1430.0</v>
+        <v>1492.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20130904</t>
+          <t>20131010</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1655.0</v>
+        <v>1735.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20130918</t>
+          <t>20131108</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1492.0</v>
+        <v>1368.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20131010</t>
+          <t>20131115</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1735.0</v>
+        <v>1543.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20131108</t>
+          <t>20131202</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1368.0</v>
+        <v>1399.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20131115</t>
+          <t>20140109</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1543.0</v>
+        <v>1770.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20131202</t>
+          <t>20140122</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1399.0</v>
+        <v>1545.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20140109</t>
+          <t>20140218</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1770.0</v>
+        <v>2305.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20140122</t>
+          <t>20140312</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1545.0</v>
+        <v>1783.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20140218</t>
+          <t>20140318</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2305.0</v>
+        <v>1990.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20140312</t>
+          <t>20140331</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1783.0</v>
+        <v>1798.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20140318</t>
+          <t>20140414</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1990.0</v>
+        <v>1977.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20140331</t>
+          <t>20140425</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1798.0</v>
+        <v>1685.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20140414</t>
+          <t>20140513</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1977.0</v>
+        <v>1872.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20140425</t>
+          <t>20140604</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1685.0</v>
+        <v>1713.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20140513</t>
+          <t>20141010</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1872.0</v>
+        <v>2623.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20140604</t>
+          <t>20141023</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1713.0</v>
+        <v>2318.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20141010</t>
+          <t>20141216</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2623.0</v>
+        <v>3311.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20141023</t>
+          <t>20141224</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2318.0</v>
+        <v>2711.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20141216</t>
+          <t>20150109</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>3311.0</v>
+        <v>3329.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20141224</t>
+          <t>20150119</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2711.0</v>
+        <v>2861.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20150109</t>
+          <t>20150128</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>3329.0</v>
+        <v>3309.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20150119</t>
+          <t>20150309</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2861.0</v>
+        <v>2881.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20150128</t>
+          <t>20150625</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>3309.0</v>
+        <v>5610.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20150309</t>
+          <t>20150709</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>2881.0</v>
+        <v>2656.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20150625</t>
+          <t>20150723</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>5610.0</v>
+        <v>4871.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20150709</t>
+          <t>20150803</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2656.0</v>
+        <v>3397.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20150723</t>
+          <t>20150817</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>4871.0</v>
+        <v>4771.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20150803</t>
+          <t>20150826</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>3397.0</v>
+        <v>2626.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20150817</t>
+          <t>20150828</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>4771.0</v>
+        <v>3421.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20150826</t>
+          <t>20150915</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2626.0</v>
+        <v>2621.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20150828</t>
+          <t>20151021</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>3421.0</v>
+        <v>3611.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20150915</t>
+          <t>20151130</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2621.0</v>
+        <v>2974.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20151021</t>
+          <t>20151204</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>3611.0</v>
+        <v>3361.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20151130</t>
+          <t>20151214</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>2974.0</v>
+        <v>3071.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20151204</t>
+          <t>20160106</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>3361.0</v>
+        <v>3808.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20151214</t>
+          <t>20160129</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>3071.0</v>
+        <v>2296.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20160106</t>
+          <t>20160907</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>3808.0</v>
+        <v>3288.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20160129</t>
+          <t>20160926</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>2296.0</v>
+        <v>2846.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20160907</t>
+          <t>20161028</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>3288.0</v>
+        <v>3089.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20160926</t>
+          <t>20161124</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>2846.0</v>
+        <v>2871.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20161028</t>
+          <t>20161208</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>3089.0</v>
+        <v>3186.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20161124</t>
+          <t>20161229</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>2871.0</v>
+        <v>2806.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20161208</t>
+          <t>20170224</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>3186.0</v>
+        <v>3239.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20161229</t>
+          <t>20170320</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2806.0</v>
+        <v>3029.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20170224</t>
+          <t>20170626</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>3239.0</v>
+        <v>3541.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20170320</t>
+          <t>20170712</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>3029.0</v>
+        <v>2881.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20170626</t>
+          <t>20170822</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>3541.0</v>
+        <v>3169.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20170712</t>
+          <t>20170926</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>2881.0</v>
+        <v>2786.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20170822</t>
+          <t>20171012</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>3169.0</v>
+        <v>2967.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20170926</t>
+          <t>20171215</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>2786.0</v>
+        <v>2372.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20171012</t>
+          <t>20180103</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>2967.0</v>
+        <v>2760.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20171215</t>
+          <t>20180129</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>2372.0</v>
+        <v>2461.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20180103</t>
+          <t>20180312</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>2760.0</v>
+        <v>2968.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20180129</t>
+          <t>20180323</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>2461.0</v>
+        <v>2651.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20180312</t>
+          <t>20180409</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>2968.0</v>
+        <v>3031.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20180323</t>
+          <t>20180423</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>2651.0</v>
+        <v>2448.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20180409</t>
+          <t>20180511</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>3031.0</v>
+        <v>2846.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20180423</t>
+          <t>20180530</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>2448.0</v>
+        <v>2622.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20180511</t>
+          <t>20180606</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>2846.0</v>
+        <v>2866.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20180530</t>
+          <t>20180706</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>2622.0</v>
+        <v>2166.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20180606</t>
+          <t>20180724</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2866.0</v>
+        <v>2751.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20180706</t>
+          <t>20180807</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>2166.0</v>
+        <v>2252.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20180724</t>
+          <t>20180910</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>2751.0</v>
+        <v>2591.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20180807</t>
+          <t>20181019</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>2252.0</v>
+        <v>2147.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20180910</t>
+          <t>20181119</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>2591.0</v>
+        <v>2674.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20181019</t>
+          <t>20190114</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>2147.0</v>
+        <v>1967.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20181119</t>
+          <t>20190415</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>2674.0</v>
+        <v>2725.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20190114</t>
+          <t>20190510</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1967.0</v>
+        <v>2151.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20190415</t>
+          <t>20190517</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2725.0</v>
+        <v>2246.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20190510</t>
+          <t>20190610</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2151.0</v>
+        <v>2048.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20190517</t>
+          <t>20190715</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>2246.0</v>
+        <v>2325.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20190610</t>
+          <t>20190722</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>2048.0</v>
+        <v>2158.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20190715</t>
+          <t>20190826</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>2325.0</v>
+        <v>3030.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20190722</t>
+          <t>20191025</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>2158.0</v>
+        <v>2419.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20190826</t>
+          <t>20191104</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>3030.0</v>
+        <v>2566.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20191025</t>
+          <t>20191113</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>2419.0</v>
+        <v>2424.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20191104</t>
+          <t>20191120</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>2566.0</v>
+        <v>2516.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20191113</t>
+          <t>20191203</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>2424.0</v>
+        <v>2286.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20191120</t>
+          <t>20200207</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>2516.0</v>
+        <v>3286.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20191203</t>
+          <t>20200228</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>2286.0</v>
+        <v>2562.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20200207</t>
+          <t>20200306</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>3286.0</v>
+        <v>2740.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20200228</t>
+          <t>20200317</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>2562.0</v>
+        <v>2356.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20200306</t>
+          <t>20200416</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>2740.0</v>
+        <v>4260.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20200317</t>
+          <t>20200528</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>2356.0</v>
+        <v>2736.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20200416</t>
+          <t>20200624</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>4260.0</v>
+        <v>4952.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20200528</t>
+          <t>20200703</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>2736.0</v>
+        <v>3780.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20200624</t>
+          <t>20200713</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>4952.0</v>
+        <v>4454.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20200703</t>
+          <t>20200717</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>3780.0</v>
+        <v>3630.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20200713</t>
+          <t>20200810</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>4454.0</v>
+        <v>5200.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20200717</t>
+          <t>20200814</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>3630.0</v>
+        <v>4025.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20200810</t>
+          <t>20200820</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>5200.0</v>
+        <v>5145.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20200814</t>
+          <t>20200910</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>4025.0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>20200820</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>5145.0</v>
+        <v>3900.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/SH600511.xlsx
+++ b/src/main/resources/SH600511.xlsx
@@ -2371,6 +2371,56 @@
         <v>3900.0</v>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>20201013</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>4987.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>20201103</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>4125.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>20201110</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>4589.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>20201119</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>4158.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>5138.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/SH600511.xlsx
+++ b/src/main/resources/SH600511.xlsx
@@ -64,341 +64,2371 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>20190111</t>
+          <t>20021127</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>2086.0</v>
+        <v>-53.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20190114</t>
+          <t>20021129</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1967.0</v>
+        <v>-31.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20190415</t>
+          <t>20030102</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2725.0</v>
+        <v>-74.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20190510</t>
+          <t>20030129</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2151.0</v>
+        <v>-13.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20190517</t>
+          <t>20030217</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2246.0</v>
+        <v>-34.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20190610</t>
+          <t>20030304</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2048.0</v>
+        <v>-10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20190715</t>
+          <t>20030409</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2325.0</v>
+        <v>-57.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20190722</t>
+          <t>20030428</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2158.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20190826</t>
+          <t>20030702</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3030.0</v>
+        <v>-67.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20191025</t>
+          <t>20030711</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2419.0</v>
+        <v>-52.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20191104</t>
+          <t>20031113</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2566.0</v>
+        <v>-143.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20191113</t>
+          <t>20031204</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2424.0</v>
+        <v>-104.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20191120</t>
+          <t>20031219</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2516.0</v>
+        <v>-134.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20191203</t>
+          <t>20040217</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2286.0</v>
+        <v>-74.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20200207</t>
+          <t>20040309</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3286.0</v>
+        <v>-108.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20200228</t>
+          <t>20040324</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2562.0</v>
+        <v>-95.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20200306</t>
+          <t>20040329</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2740.0</v>
+        <v>-106.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20200317</t>
+          <t>20040406</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2356.0</v>
+        <v>-88.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20200416</t>
+          <t>20040527</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4260.0</v>
+        <v>-129.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20200528</t>
+          <t>20040602</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2736.0</v>
+        <v>-117.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20200624</t>
+          <t>20040614</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4952.0</v>
+        <v>-135.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20200703</t>
+          <t>20040624</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3780.0</v>
+        <v>-123.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20200713</t>
+          <t>20040726</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4454.0</v>
+        <v>-155.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20200717</t>
+          <t>20040804</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3630.0</v>
+        <v>-146.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20200810</t>
+          <t>20040819</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5200.0</v>
+        <v>-166.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20200814</t>
+          <t>20040831</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4025.0</v>
+        <v>-155.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20200820</t>
+          <t>20040913</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5145.0</v>
+        <v>-164.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20200910</t>
+          <t>20041008</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3900.0</v>
+        <v>-129.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20041022</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4987.0</v>
+        <v>-157.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20201103</t>
+          <t>20041116</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4125.0</v>
+        <v>-134.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20201110</t>
+          <t>20050201</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4589.0</v>
+        <v>-176.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20201119</t>
+          <t>20050225</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4158.0</v>
+        <v>-159.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20201211</t>
+          <t>20050401</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6295.0</v>
+        <v>-185.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20201218</t>
+          <t>20050428</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4570.0</v>
+        <v>-163.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20050602</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-186.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20050912</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-140.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20051010</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-161.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>20051024</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-145.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20051206</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-169.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20060206</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-132.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20060221</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-151.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20060628</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20060714</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20061027</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>371.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20061114</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>178.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20061130</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>268.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20061208</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>130.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20070119</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>405.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20070201</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>250.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20070213</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>486.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20070305</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>311.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20070425</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>744.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20070514</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>587.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20070613</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1014.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20070702</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>709.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20070827</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1275.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20071029</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>807.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20080103</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1465.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20080122</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1168.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>20080218</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1646.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>20080318</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1048.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>20080408</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1454.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>20080423</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1073.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>20080514</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1493.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>20080616</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>965.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>20080710</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1293.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>20080908</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>777.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>20080922</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1135.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>20081106</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>779.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>20081222</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1223.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>20090119</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1039.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>20090216</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1280.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>20090227</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>986.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>20090417</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1392.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>20090512</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1179.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>20090617</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1737.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>20090707</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1434.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>20090715</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1652.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>20090818</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1332.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>20090917</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1931.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20090929</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1432.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20100114</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2658.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>20100203</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2204.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>20100224</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2614.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>20100521</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1898.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>20100531</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2234.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>20100702</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1642.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>20100816</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2342.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>20100823</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2042.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>20100906</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2331.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>20101018</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1797.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>20101111</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2634.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>20101203</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2227.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>20101216</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2397.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>20110125</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1807.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>20110214</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2036.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>20110222</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1878.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>20110314</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2141.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>20110429</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1515.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>20110509</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1626.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>20110623</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1187.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>20110718</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1579.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>20110802</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1292.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>20110829</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1719.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>20110914</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1399.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>20110921</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1575.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>20111024</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1162.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>20111108</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1422.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>20120106</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>803.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>20120227</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1083.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>20120307</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>948.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>20120313</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1143.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>20120330</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>867.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>20120516</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1208.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>20120529</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1045.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>20120605</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1205.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>20120626</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1046.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>20120703</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1230.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>20120710</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1110.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>20120821</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1293.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>20120831</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1105.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>20120907</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1250.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>20120926</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1113.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>20121017</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1225.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>20121128</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1003.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>20130129</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1600.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>20130205</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1452.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>20130226</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1793.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>20130312</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1443.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>20130322</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1697.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>20130416</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1368.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>20130509</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1612.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>20130520</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1333.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>20130531</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1583.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>20130625</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1146.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>20130815</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1640.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>20130823</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1430.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>20130904</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1655.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>20130918</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1492.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>20131010</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1735.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>20131108</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1368.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>20131115</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1543.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>20131202</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1399.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>20140109</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1770.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>20140122</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1545.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>20140218</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>2305.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>20140312</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1783.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>20140318</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1990.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>20140331</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1798.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>20140414</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1977.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>20140425</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1685.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>20140513</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1872.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>20140604</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1713.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>20141010</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>2623.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>20141023</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>2318.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>20141216</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>3311.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>20141224</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>2711.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>20150109</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>3329.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>20150119</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>2861.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>20150128</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>3309.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>20150309</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>2881.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>20150625</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>5610.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>20150709</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>2656.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>20150723</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>4871.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>20150803</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>3397.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>20150817</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>4771.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>20150826</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>2626.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>20150828</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>3421.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>20150915</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>2621.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>20151021</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>3611.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>20151130</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>2974.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>20151204</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>3361.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>20151214</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>3071.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>20160106</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>3808.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>20160129</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>2296.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>20160907</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>3288.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>20160926</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>2846.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>20161028</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>3089.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>20161124</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>2871.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>20161208</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>3186.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>20161229</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>2806.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>20170224</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>3239.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>20170320</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>3029.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>20170626</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>3541.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>20170712</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>2881.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>20170822</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>3169.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>20170926</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>2786.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>20171012</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>2967.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>20171215</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>2372.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>20180103</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2760.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>20180129</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>2461.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>20180312</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>2968.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>20180323</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>2651.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>20180409</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>3031.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>20180423</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>2448.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>20180511</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>2846.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>20180530</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>2622.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>20180606</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>2866.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>20180706</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>2166.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>20180724</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>2751.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>20180807</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2252.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>20180910</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>2591.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>20181019</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>2147.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>20181119</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2674.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>20190114</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1967.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>20190415</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2725.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>20190510</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>2151.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>20190517</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2246.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>20190610</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>2048.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>20190715</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2325.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>20190722</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>2158.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>20190826</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>3030.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>20191025</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2419.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>20191104</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>2566.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>20191113</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>2424.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>20191120</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2516.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>20191203</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>2286.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>20200207</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>3286.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>20200228</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>2562.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>20200306</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>2740.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>20200317</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>2356.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>20200416</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>4260.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>20200528</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>2736.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>20200624</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>4952.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>20200703</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>3780.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>20200713</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>4454.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>20200717</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>3630.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>20200810</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>5200.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>20200814</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>4025.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>20200820</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>5145.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>20200910</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>3900.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>20201013</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>4987.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>20201103</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>4125.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>20201110</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>4589.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>20201119</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>4158.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>20201211</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>6295.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>20210309</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>3338.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/SH600511.xlsx
+++ b/src/main/resources/SH600511.xlsx
@@ -2424,11 +2424,21 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20210309</t>
+          <t>20210325</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>3338.0</v>
+        <v>3291.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>20210331</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>3465.0</v>
       </c>
     </row>
   </sheetData>
